--- a/data/censos_ICA/Censo_ICA_Bovinos_2018.xlsx
+++ b/data/censos_ICA/Censo_ICA_Bovinos_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pob_municipios_colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9F07C0-AF0C-4CA0-A794-41A894E37157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18248F0-BA20-4480-A0AC-30B2FC57B3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3390,48 +3390,6 @@
     <t>DEPARTAMENTO</t>
   </si>
   <si>
-    <t>TERNERAS &lt; 1 AÑO</t>
-  </si>
-  <si>
-    <t>TERNEROS &lt; 1 AÑO</t>
-  </si>
-  <si>
-    <t>HEMBRAS 1 - 2 AÑOS</t>
-  </si>
-  <si>
-    <t>MACHOS 1 - 2 AÑOS</t>
-  </si>
-  <si>
-    <t>HEMBRAS 2 - 3 AÑOS</t>
-  </si>
-  <si>
-    <t>MACHOS 2 - 3 AÑOS</t>
-  </si>
-  <si>
-    <t>HEMBRAS &gt; 3 AÑOS</t>
-  </si>
-  <si>
-    <t>MACHOS &gt; 3 AÑOS</t>
-  </si>
-  <si>
-    <t>TOTAL BOVINOS - 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No DE FINCAS 1 A 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No DE FINCAS 51 A 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No DE FINCAS 101 A 500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No DE FINCAS 501 O MAS</t>
-  </si>
-  <si>
-    <t>TOTAL FINCAS CON BOVINOS - 2018</t>
-  </si>
-  <si>
     <t>ABRIAQUÍ</t>
   </si>
   <si>
@@ -3529,6 +3487,48 @@
   </si>
   <si>
     <t>PESCA</t>
+  </si>
+  <si>
+    <t>TERNERAS_&lt;_1_AÑO</t>
+  </si>
+  <si>
+    <t>TERNEROS_&lt;_1_AÑO</t>
+  </si>
+  <si>
+    <t>HEMBRAS_1_-_2_AÑOS</t>
+  </si>
+  <si>
+    <t>MACHOS_1_-_2_AÑOS</t>
+  </si>
+  <si>
+    <t>HEMBRAS_2_-_3_AÑOS</t>
+  </si>
+  <si>
+    <t>MACHOS_2_-_3_AÑOS</t>
+  </si>
+  <si>
+    <t>HEMBRAS_&gt;_3_AÑOS</t>
+  </si>
+  <si>
+    <t>MACHOS_&gt;_3_AÑOS</t>
+  </si>
+  <si>
+    <t>TOTAL_BOVINOS_-_2018</t>
+  </si>
+  <si>
+    <t>_No_DE_FINCAS_1_A_50</t>
+  </si>
+  <si>
+    <t>_No_DE_FINCAS_51_A_100</t>
+  </si>
+  <si>
+    <t>_No_DE_FINCAS_101_A_500</t>
+  </si>
+  <si>
+    <t>_No_DE_FINCAS_501_O_MAS</t>
+  </si>
+  <si>
+    <t>TOTAL_FINCAS_CON_BOVINOS_-_2018</t>
   </si>
 </sst>
 </file>
@@ -4169,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C408665-A5B5-41DB-943F-4200FE8231D3}">
   <dimension ref="A1:P1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A1096" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4183,46 +4183,46 @@
         <v>1119</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1121</v>
+        <v>1154</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>1122</v>
+        <v>1155</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1123</v>
+        <v>1156</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>1124</v>
+        <v>1157</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>1125</v>
+        <v>1158</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1126</v>
+        <v>1159</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>1127</v>
+        <v>1160</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>1128</v>
+        <v>1161</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>1129</v>
+        <v>1162</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>1130</v>
+        <v>1163</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>1131</v>
+        <v>1164</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>1132</v>
+        <v>1165</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>1133</v>
+        <v>1166</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>1134</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="C14" s="11">
         <v>1146</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="C15" s="11">
         <v>323</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="C16" s="11">
         <v>412</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="C19" s="11">
         <v>260</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="C21" s="11">
         <v>3446</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="C22" s="11">
         <v>535</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="C23" s="11">
         <v>1619</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="C33" s="11">
         <v>576</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="C34" s="11">
         <v>8081</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="C38" s="11">
         <v>1853</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="C39" s="11">
         <v>3177</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="C44" s="11">
         <v>4377</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="C47" s="11">
         <v>649</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="C53" s="11">
         <v>993</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="C57" s="11">
         <v>9370</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="C67" s="11">
         <v>216</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="C70" s="11">
         <v>54</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="C72" s="11">
         <v>664</v>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="C81" s="11">
         <v>2155</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="C84" s="11">
         <v>7699</v>
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="C86" s="11">
         <v>3299</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="C87" s="11">
         <v>10563</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="C89" s="11">
         <v>910</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="C118" s="11">
         <v>6827</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="C119" s="11">
         <v>1144</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="C120" s="11">
         <v>926</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="C121" s="11">
         <v>3969</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="C123" s="11">
         <v>996</v>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="C130" s="11">
         <v>2306</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="C133" s="11">
         <v>3630</v>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="C135" s="11">
         <v>4354</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="C136" s="11">
         <v>8326</v>
@@ -18280,7 +18280,7 @@
         <v>8</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="C283" s="11">
         <v>1692</v>
